--- a/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.1/Experimentos_Generador/ex9.2.1(Quadratic)__C_Stationarygenerator_alpha_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>3 - 3x + y</t>
-  </si>
-  <si>
-    <t>-2.261845371347441</t>
+    <t>0.9000000000000004 - 3x + y</t>
+  </si>
+  <si>
+    <t>2.0999999999999996</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23256681002040058</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.7321904240757445</t>
-  </si>
-  <si>
-    <t>-4 + x - 0.5y</t>
-  </si>
-  <si>
-    <t>-2.3426163663914368</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>0.47499999999999964 + x - 0.5y</t>
+  </si>
+  <si>
+    <t>-4.475</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.4265237521284301</t>
-  </si>
-  <si>
-    <t>-0.24873023839063202</t>
-  </si>
-  <si>
-    <t>-0.8751985711119494</t>
-  </si>
-  <si>
-    <t>-7 + x + y</t>
-  </si>
-  <si>
-    <t>-4.473532954826183</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-4.3</t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>-7.5 + x + y</t>
+  </si>
+  <si>
+    <t>-0.49999999999999956</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5004082174406084</t>
-  </si>
-  <si>
-    <t>0.5856529935975306</t>
-  </si>
-  <si>
-    <t>0.6537270959163581</t>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.9470781041303145</t>
-  </si>
-  <si>
-    <t>0.5793889410435026</t>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>4.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.2421261227116727</t>
+    <t>-5.460000000000001</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>5.768921036532473</t>
-  </si>
-  <si>
-    <t>-9.345129641140867</t>
+    <t>27.000000000000004</t>
+  </si>
+  <si>
+    <t>-58.550000000000004</t>
   </si>
   <si>
     <t>vec_alpha</t>
